--- a/info/판매오더일괄등록_템플릿.xlsx
+++ b/info/판매오더일괄등록_템플릿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\shopping_mall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\jei_shopping\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{C84A4974-3B50-4A7F-8B81-737380880DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F8D1B-FB52-460F-8422-B18D6505F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AC79CC5-D8AC-4B86-90A2-6E1FC2039B0F}"/>
   </bookViews>
@@ -35,281 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Admin</author>
-    <author>HWANG KYU MIN</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{2299E9C5-0902-4904-97D4-3F57598C67FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">일반판매
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4:CS</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">판매
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">외부판매
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보상판매</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{259E94D1-0F5D-42A4-8414-34EDFE3B4112}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">해당없음
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>T1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">카드
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>T2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>계좌이체</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{1EC5E65A-7F07-40CC-B23E-392AA11ECB0F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">배송요청
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">직접수령
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기타
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">택배발송
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>오더일</t>
   </si>
@@ -317,74 +44,83 @@
     <t>웹주문번호</t>
   </si>
   <si>
+    <t>품목코드</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>단가</t>
+  </si>
+  <si>
+    <t>통화</t>
+  </si>
+  <si>
+    <t>공급가액</t>
+  </si>
+  <si>
+    <t>부가세</t>
+  </si>
+  <si>
+    <t>총액</t>
+  </si>
+  <si>
+    <t>납품예정일</t>
+  </si>
+  <si>
+    <t>판매유형</t>
+  </si>
+  <si>
+    <t>영업사원명</t>
+  </si>
+  <si>
+    <t>납품처주소</t>
+  </si>
+  <si>
+    <t>수령방법</t>
+  </si>
+  <si>
+    <t>보증개월수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무상여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격정책예외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>고객코드</t>
-  </si>
-  <si>
-    <t>품목코드</t>
-  </si>
-  <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>단가</t>
-  </si>
-  <si>
-    <t>통화</t>
-  </si>
-  <si>
-    <t>공급가액</t>
-  </si>
-  <si>
-    <t>부가세</t>
-  </si>
-  <si>
-    <t>총액</t>
-  </si>
-  <si>
-    <t>납품예정일</t>
-  </si>
-  <si>
-    <t>판매유형</t>
-  </si>
-  <si>
-    <t>영업사원명</t>
-  </si>
-  <si>
-    <t>납품처주소</t>
-  </si>
-  <si>
-    <t>수령방법</t>
-  </si>
-  <si>
-    <t>보증개월수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무상여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격정책예외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출하유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드사정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,26 +143,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -472,20 +188,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -499,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,22 +540,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D948C7EF-55CF-4A7B-B32A-DFA677C619C2}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D948C7EF-55CF-4A7B-B32A-DFA677C619C2}">
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="65.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
     <col min="15" max="15" width="12.625" customWidth="1"/>
     <col min="16" max="16" width="12.375" customWidth="1"/>
@@ -856,88 +566,87 @@
     <col min="18" max="18" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="11.625" customWidth="1"/>
     <col min="22" max="22" width="32.5" customWidth="1"/>
-    <col min="23" max="23" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.5" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="J2" s="4"/>
-      <c r="M2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="V2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -946,7 +655,6 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;"맑은 고딕"&amp;11&amp;K000000&amp;G</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
